--- a/docs/del-StandardFormLibrary.xlsx
+++ b/docs/del-StandardFormLibrary.xlsx
@@ -149,7 +149,7 @@
     <t>del-StandardFormLibrary</t>
   </si>
   <si>
-    <t>A definition of a standard form section.</t>
+    <t>A definition of a standard form.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/docs/del-StandardFormLibrary.xlsx
+++ b/docs/del-StandardFormLibrary.xlsx
@@ -149,7 +149,7 @@
     <t>del-StandardFormLibrary</t>
   </si>
   <si>
-    <t>A definition of a standard form.</t>
+    <t>A DEL standard form. Used for searching purposes. Links to any related StandardFormQuestion.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>48</v>
@@ -2384,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2832,7 +2832,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3052,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3609,7 +3609,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3831,7 +3831,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3944,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4055,7 +4055,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4166,7 +4166,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4275,7 +4275,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4497,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
@@ -4723,7 +4723,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4834,7 +4834,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4943,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5052,7 +5052,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5161,7 +5161,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5270,7 +5270,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5383,7 +5383,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5492,7 +5492,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5601,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
